--- a/assets/previewfile/bulkformat.xlsx
+++ b/assets/previewfile/bulkformat.xlsx
@@ -11,22 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>Sub Product</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Loan Number</t>
   </si>
   <si>
-    <t>Loan Amount</t>
-  </si>
-  <si>
     <t>Property Address</t>
   </si>
   <si>
@@ -42,83 +36,35 @@
     <t>Property Zip Code</t>
   </si>
   <si>
-    <t>APN</t>
-  </si>
-  <si>
-    <t>Additional Info</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>Email Report to</t>
-  </si>
-  <si>
-    <t>Attention Name</t>
-  </si>
-  <si>
-    <t>Borrower Name 1</t>
-  </si>
-  <si>
-    <t>Email 1</t>
-  </si>
-  <si>
-    <t>Home Number 1</t>
-  </si>
-  <si>
-    <t>Work Number 1</t>
-  </si>
-  <si>
-    <t>Cell Number 1</t>
-  </si>
-  <si>
-    <t>Social 1</t>
-  </si>
-  <si>
-    <t>Borrower Name 2</t>
-  </si>
-  <si>
-    <t>Email 2</t>
-  </si>
-  <si>
-    <t>Home Number 2</t>
-  </si>
-  <si>
-    <t>Work Number 2</t>
-  </si>
-  <si>
-    <t>Cell Number 2</t>
-  </si>
-  <si>
-    <t>Social 2</t>
-  </si>
-  <si>
-    <t>EZ Prop</t>
-  </si>
-  <si>
-    <t>23130488/HECL/26347</t>
-  </si>
-  <si>
-    <t>3099 S ARIZONA AVE</t>
-  </si>
-  <si>
-    <t>YUMA</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>ISGN Property Report</t>
-  </si>
-  <si>
-    <t>PATRICIA DAVISOWENS</t>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>LN0001</t>
+  </si>
+  <si>
+    <t>101, Hill View</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>Madana</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Cintol</t>
+  </si>
+  <si>
+    <t>ALT Order No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,12 +79,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -167,18 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -478,17 +412,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -514,127 +448,57 @@
     <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="42.75">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="2">
-        <v>85365</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+        <v>29001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
